--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1271150.980491114</v>
+        <v>1268450.330867806</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.31870353900245</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>72.36698404190648</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>135.1575449208057</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>26.95228090977687</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.89718164756319</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.5102079953246</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.019844093715</v>
       </c>
       <c r="G5" t="n">
-        <v>49.80319325744939</v>
+        <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.38935721520075</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3593638980477</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.0137567536266</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.19796218539191</v>
+        <v>36.31604239259338</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.43696300167737</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>56.98598688499161</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477876</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1773223714491</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.1722518073692</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>16.54389930660729</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>2.739389635060288</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542836</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371884</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238052</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114117</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1427,16 +1427,16 @@
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>257.5360875336511</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860898</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458129</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035351</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009517</v>
       </c>
       <c r="D13" t="n">
-        <v>50.15605831429798</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146352</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001846</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>84.56702400647363</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.3725990111934</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.95497330697974</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.24347904696253</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>247.9252424950644</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853715</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833645</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012297</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>97.02629574295609</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695437</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833582</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428217</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>44.75138076689291</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936196</v>
       </c>
       <c r="H37" t="n">
-        <v>83.065608924286</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833977</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>112.3470522562663</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8253826161912343</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.78074638267663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.168699193619</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432.425644570946</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="C2" t="n">
-        <v>432.425644570946</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="D2" t="n">
-        <v>432.425644570946</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E2" t="n">
-        <v>432.425644570946</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
-        <v>425.4801438217425</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429522</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>827.4467551159955</v>
       </c>
       <c r="U2" t="n">
-        <v>432.425644570946</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V2" t="n">
-        <v>432.425644570946</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="W2" t="n">
-        <v>432.425644570946</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="X2" t="n">
-        <v>432.425644570946</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.425644570946</v>
+        <v>307.3840804899463</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>46.96951069551282</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4440,19 +4440,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496284</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>573.2316820178858</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>436.7089093706072</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8574091650744</v>
+        <v>546.0071558463937</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.0971104001205</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4237198880139</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2346475167379</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287949</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>700.593955598722</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>700.593955598722</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>700.593955598722</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>434.216299031544</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>434.216299031544</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4237198880139</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.89334409230622</v>
+        <v>530.4703790195924</v>
       </c>
       <c r="C5" t="n">
-        <v>87.89334409230622</v>
+        <v>530.4703790195924</v>
       </c>
       <c r="D5" t="n">
-        <v>87.89334409230622</v>
+        <v>530.4703790195924</v>
       </c>
       <c r="E5" t="n">
-        <v>87.89334409230622</v>
+        <v>530.4703790195924</v>
       </c>
       <c r="F5" t="n">
-        <v>80.94784334310275</v>
+        <v>143.5816476117996</v>
       </c>
       <c r="G5" t="n">
-        <v>30.6415875274973</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="H5" t="n">
-        <v>30.6415875274973</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6415875274973</v>
+        <v>30.6415875274972</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281435</v>
+        <v>93.51877468281373</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452985</v>
+        <v>238.4938972452974</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192557</v>
+        <v>455.2501182192541</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494236</v>
+        <v>728.1026159494212</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730202</v>
+        <v>1009.983960730199</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145369</v>
+        <v>1262.821260145366</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739599</v>
+        <v>1444.111044739595</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374865</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374865</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374865</v>
+        <v>1387.271938094004</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374865</v>
+        <v>1174.663486810236</v>
       </c>
       <c r="U5" t="n">
-        <v>1532.079376374865</v>
+        <v>1174.663486810236</v>
       </c>
       <c r="V5" t="n">
-        <v>1201.016489031294</v>
+        <v>1174.663486810236</v>
       </c>
       <c r="W5" t="n">
-        <v>848.2478337611803</v>
+        <v>821.8948315401224</v>
       </c>
       <c r="X5" t="n">
-        <v>474.7820755001005</v>
+        <v>821.8948315401224</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.89334409230622</v>
+        <v>821.8948315401224</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.07387256324671</v>
+        <v>517.1904547900594</v>
       </c>
       <c r="C6" t="n">
-        <v>54.07387256324671</v>
+        <v>342.7374255089325</v>
       </c>
       <c r="D6" t="n">
-        <v>54.07387256324671</v>
+        <v>226.5619136365824</v>
       </c>
       <c r="E6" t="n">
-        <v>54.07387256324671</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="F6" t="n">
-        <v>54.07387256324671</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="G6" t="n">
-        <v>54.07387256324671</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="H6" t="n">
-        <v>54.07387256324671</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6415875274973</v>
+        <v>30.6415875274972</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835653</v>
+        <v>49.27296248835621</v>
       </c>
       <c r="K6" t="n">
-        <v>387.8643287482183</v>
+        <v>159.2717745831311</v>
       </c>
       <c r="L6" t="n">
-        <v>582.0938474613445</v>
+        <v>448.9177571045008</v>
       </c>
       <c r="M6" t="n">
-        <v>828.1074027572815</v>
+        <v>828.1074027572786</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.040849741469</v>
+        <v>1095.040849741465</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.01300885147</v>
+        <v>1317.013008851466</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705197</v>
+        <v>1475.832169705192</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374865</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="R6" t="n">
-        <v>1527.59759556509</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="S6" t="n">
-        <v>1383.105979715895</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="T6" t="n">
-        <v>1187.196302353392</v>
+        <v>1336.169699012357</v>
       </c>
       <c r="U6" t="n">
-        <v>959.0751364936779</v>
+        <v>1336.169699012357</v>
       </c>
       <c r="V6" t="n">
-        <v>723.9230282619351</v>
+        <v>1101.017590780614</v>
       </c>
       <c r="W6" t="n">
-        <v>469.6856715337335</v>
+        <v>1101.017590780614</v>
       </c>
       <c r="X6" t="n">
-        <v>261.8341713282006</v>
+        <v>893.1660905750814</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.07387256324671</v>
+        <v>685.4057918101275</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>240.3183504827315</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="C7" t="n">
-        <v>182.7567475685986</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="D7" t="n">
-        <v>32.64010815626283</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="E7" t="n">
-        <v>32.64010815626283</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626283</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626283</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626283</v>
+        <v>30.6415875274972</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626283</v>
+        <v>30.6415875274972</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6415875274973</v>
+        <v>30.6415875274972</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747006</v>
+        <v>157.2595961747003</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914628</v>
+        <v>374.8134887914621</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437701</v>
+        <v>614.5826883437692</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630884</v>
+        <v>854.0853286630871</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109135</v>
+        <v>1059.288486109133</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016232</v>
+        <v>1211.35455501623</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767126</v>
+        <v>1233.202138767124</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767126</v>
+        <v>1112.82100505859</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.202138767126</v>
+        <v>909.2941085955979</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.202138767126</v>
+        <v>909.2941085955979</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.202138767126</v>
+        <v>620.1541806499117</v>
       </c>
       <c r="V7" t="n">
-        <v>978.5176505612395</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="W7" t="n">
-        <v>689.100480524279</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="X7" t="n">
-        <v>461.1109296262616</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="Y7" t="n">
-        <v>240.3183504827315</v>
+        <v>182.8997289363699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.2769458819316</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>141.2769458819316</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>141.2769458819316</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2769458819316</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3314451327281</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460534</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145195</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408906</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468494</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263499</v>
+        <v>808.4162984738908</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738914</v>
+        <v>808.4162984738908</v>
       </c>
       <c r="G11" t="n">
-        <v>393.840852803538</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442031</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765422</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687097</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856277</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882234</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234584</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455654</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971433</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604042</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3109.157843448839</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>3109.157843448839</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448839</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473028</v>
+        <v>1949.766908076668</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503042</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469167</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831285</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104374</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754326</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105392</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.74257797114</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.4797793399239</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="C13" t="n">
-        <v>443.543596412017</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="D13" t="n">
-        <v>392.8809112460593</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>392.8809112460593</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481489</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457697</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888905</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715846</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.10273901427</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.10273901427</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.10273901427</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.012032454559</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1532.327544248672</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1242.910374211711</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>1014.920823313694</v>
+        <v>606.306102219625</v>
       </c>
       <c r="Y13" t="n">
-        <v>794.1282441701636</v>
+        <v>385.5135230760949</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,25 +5276,25 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.49737412729</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>915.0917312077133</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220733</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941663</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>325.1228070941663</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239909</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608056</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608056</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5470,16 +5470,16 @@
         <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630036</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6002,10 +6002,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.8412329032296</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6151,19 +6151,19 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>955.2822768769995</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.4896977334694</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284093</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005024</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881668</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.142874958649</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400687</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998262</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111706</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048576</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038343</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6935,49 +6935,49 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400756</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121687</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121687</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121687</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121687</v>
+        <v>198.0274703142543</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270487</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138455</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703154</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998302</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998302</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782974</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.741944003836</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.10824923517</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2150.626378269244</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1861.551151613442</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1606.866663407555</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1317.449493370594</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y40" t="n">
-        <v>868.6673633290469</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="41">
@@ -7391,34 +7391,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876692</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597623</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474265</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179089</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.644273983533</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630044</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>28.18495819153173</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127261</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752769</v>
+        <v>34.58458098752797</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>230.9015698637238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>96.3802664729738</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.5213033907488</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.9531451156648</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>70.21617093648376</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296996374</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767613</v>
       </c>
       <c r="D13" t="n">
-        <v>98.45941470391438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034047</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.86693864009554</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>84.16945386597352</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.8770068749576</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788608</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0033420516653</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>38.59775584152658</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267405</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.744524524838198e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.5498640939324</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>120.3791545843322</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823335</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.3554390986492</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392193786</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459147</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>105.058398071022</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6085800303779</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.05123379926067</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858593.474545548</v>
+        <v>858593.4745455488</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934060.7287539575</v>
+        <v>934060.7287539577</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939197.5810137291</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137286</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>939197.5810137291</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26314,31 @@
         <v>492625.0619185704</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958222</v>
+        <v>442233.6433958224</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828183</v>
+        <v>481607.8629828184</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26347,10 +26347,10 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140035</v>
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.909810355</v>
+        <v>132064.9098103536</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196349</v>
+        <v>266112.9182196361</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357045</v>
+        <v>325187.1190357065</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.34710514</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557874</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911432</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648386</v>
+        <v>30705.53736648355</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950817</v>
+        <v>65187.38037950854</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456781</v>
+        <v>84929.59434456821</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848967</v>
+        <v>43782.40655848923</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224528</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216676.2274925558</v>
+        <v>216676.2274925562</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
       </c>
       <c r="E4" t="n">
-        <v>11677.85525949977</v>
+        <v>11677.85525949978</v>
       </c>
       <c r="F4" t="n">
         <v>11770.44359558047</v>
@@ -26439,25 +26439,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="N4" t="n">
         <v>11776.97621680583</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>11776.97621680584</v>
       </c>
-      <c r="O4" t="n">
-        <v>11776.97621680582</v>
-      </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589735</v>
+        <v>72540.50950589725</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214695</v>
+        <v>86093.7221621471</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502632.7871400664</v>
+        <v>-502632.7871400663</v>
       </c>
       <c r="C6" t="n">
-        <v>71343.41510976179</v>
+        <v>71343.41510976279</v>
       </c>
       <c r="D6" t="n">
-        <v>-7968.449293489713</v>
+        <v>-7968.449293490819</v>
       </c>
       <c r="E6" t="n">
-        <v>19274.94693847095</v>
+        <v>19064.98269462428</v>
       </c>
       <c r="F6" t="n">
-        <v>203173.9437682595</v>
+        <v>203128.0387726956</v>
       </c>
       <c r="G6" t="n">
-        <v>360221.217537712</v>
+        <v>360186.4796122762</v>
       </c>
       <c r="H6" t="n">
-        <v>371388.4537732908</v>
+        <v>371353.715847855</v>
       </c>
       <c r="I6" t="n">
-        <v>371388.4537732907</v>
+        <v>371353.715847855</v>
       </c>
       <c r="J6" t="n">
-        <v>302389.2993541764</v>
+        <v>302354.561428741</v>
       </c>
       <c r="K6" t="n">
-        <v>340682.916406807</v>
+        <v>340648.1784813713</v>
       </c>
       <c r="L6" t="n">
-        <v>306201.0733937824</v>
+        <v>306166.3354683464</v>
       </c>
       <c r="M6" t="n">
-        <v>286458.8594287228</v>
+        <v>286424.1215032868</v>
       </c>
       <c r="N6" t="n">
-        <v>327606.0472148008</v>
+        <v>327571.3092893658</v>
       </c>
       <c r="O6" t="n">
-        <v>368365.1557960661</v>
+        <v>368330.4178706302</v>
       </c>
       <c r="P6" t="n">
-        <v>371388.4537732906</v>
+        <v>371353.7158478549</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605233</v>
+        <v>716.7570176605221</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494554</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937162</v>
+        <v>383.019844093715</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808646</v>
+        <v>981.3883278086478</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.702003891045</v>
+        <v>102.7020038910438</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570161</v>
+        <v>217.307874457017</v>
       </c>
       <c r="E3" t="n">
-        <v>278.105375377015</v>
+        <v>278.1053753770168</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218315</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.30596409221</v>
+        <v>119.3059640922089</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063225</v>
+        <v>257.5649880063237</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086072</v>
+        <v>340.803495708609</v>
       </c>
       <c r="F4" t="n">
-        <v>178.756962517361</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922098</v>
+        <v>119.3059640922086</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063225</v>
+        <v>257.564988006324</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086074</v>
+        <v>340.803495708609</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517361</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.30596409221</v>
+        <v>119.3059640922089</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063225</v>
+        <v>257.5649880063237</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086072</v>
+        <v>340.803495708609</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517361</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>391.5154711067075</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776179</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27518,10 +27518,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>116.5374382401139</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>178.8207042937006</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>138.3496394510646</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.0887711247962</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>94.22363366815597</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>23.85620164799644</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>362.6181090108092</v>
-      </c>
       <c r="H5" t="n">
-        <v>309.9653033936934</v>
+        <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520056</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980477</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1151380880864</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562337342</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>32.43130881101217</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339767</v>
+        <v>97.34583147339769</v>
       </c>
       <c r="I6" t="n">
-        <v>13.11808020720138</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.436963001677512</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>110.2608342136362</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.6984667036611</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629794</v>
+        <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422478018</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.177322371449</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.491627498362</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.96539151645879</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>395.0038034663467</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>383.4985490209933</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193758</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-2.061521324018637e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>4.604316927725449e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876473</v>
+        <v>2.881435246876469</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207369</v>
+        <v>29.50949872207364</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552053</v>
+        <v>111.0865323552052</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845823</v>
+        <v>244.5582147845819</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848635</v>
+        <v>366.5293687848629</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214594</v>
+        <v>454.7120927214587</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930989</v>
+        <v>505.9548167930981</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882867</v>
+        <v>514.141694688286</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521587</v>
+        <v>485.489422952158</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948958</v>
+        <v>414.3539902948951</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.162590516132</v>
+        <v>311.1625905161315</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266044</v>
+        <v>181.0009568266042</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819769</v>
+        <v>65.6607056881976</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320177</v>
+        <v>12.61348279320175</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501178</v>
+        <v>0.2305148197501175</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835843</v>
+        <v>1.54170377383584</v>
       </c>
       <c r="H6" t="n">
-        <v>14.8896127630988</v>
+        <v>14.88961276309877</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882178</v>
+        <v>53.0805904588217</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342013</v>
+        <v>145.657197334201</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812027</v>
+        <v>248.9513501812023</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234359</v>
+        <v>334.7458128234354</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249851</v>
+        <v>390.6325746249845</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118054</v>
+        <v>400.9714565118048</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757586</v>
+        <v>366.8105465757579</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160742</v>
+        <v>294.3978022160737</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584139</v>
+        <v>196.7971343584136</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096576</v>
+        <v>95.72087115096562</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313504</v>
+        <v>28.63647141313499</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943591</v>
+        <v>6.214148105943582</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576213</v>
+        <v>0.1014278798576211</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797665</v>
+        <v>1.292512654797663</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265561</v>
+        <v>11.49161251265559</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427888</v>
+        <v>38.86938056427881</v>
       </c>
       <c r="J7" t="n">
-        <v>91.3806446941949</v>
+        <v>91.38064469419476</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574014</v>
+        <v>150.1664702574012</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232819</v>
+        <v>192.1613814232816</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970557</v>
+        <v>202.6072336970554</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291737</v>
+        <v>197.7896865291734</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981282</v>
+        <v>182.6907886981279</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402557</v>
+        <v>156.3235305402554</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.230309666739</v>
+        <v>108.2303096667388</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572044</v>
+        <v>58.11606900572035</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861021</v>
+        <v>22.52497053861017</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499112</v>
+        <v>5.522554070499103</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169088</v>
+        <v>0.07050069026169077</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485641</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508984</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726047</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216961</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857413</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898374</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294396</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615127</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789558</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356977</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191518</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596465</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202548</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256408</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784532</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114713</v>
+        <v>237.3367583732568</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431801</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6381359012599</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697579</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236081</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691781</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836909</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509171</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263704</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973089</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050055</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761892</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570596</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929606</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282689</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32087,19 +32087,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>506.4291208739044</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>575.5951359912046</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963282</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.13373767211347</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34784,7 +34784,7 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34793,7 +34793,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250136</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649638</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789602</v>
+        <v>63.51231025789562</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398829</v>
+        <v>146.4395177398824</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514722</v>
+        <v>218.9456777514715</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658262</v>
+        <v>275.6085835658254</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916958</v>
+        <v>284.728631091695</v>
       </c>
       <c r="O5" t="n">
-        <v>255.391211530472</v>
+        <v>255.3912115304713</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396262</v>
+        <v>183.1209945396256</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168247</v>
+        <v>88.85690064168202</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753458</v>
+        <v>18.81957066753435</v>
       </c>
       <c r="K6" t="n">
-        <v>342.0114810705675</v>
+        <v>111.1099112068433</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435617</v>
+        <v>292.571699516535</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029668</v>
+        <v>383.019844093715</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284721</v>
+        <v>269.6297444284714</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313141</v>
+        <v>224.2143021313135</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017439</v>
+        <v>160.4233948017435</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239238</v>
+        <v>56.81536027239207</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315185</v>
+        <v>127.8969784315183</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835981</v>
+        <v>219.7514066835978</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588963</v>
+        <v>242.191110658896</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084023</v>
+        <v>241.921858908402</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121679</v>
+        <v>207.2759166121675</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051492</v>
+        <v>153.6020898051489</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504463</v>
+        <v>22.06826641504445</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065822</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>466.4238188159144</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276242</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584686</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932464</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077528</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062432</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151085</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156558</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458958</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457666</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625137</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313797</v>
+        <v>105.9950462899235</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987356</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>251.6637284869297</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701815</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360909</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112332</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765375</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410827</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998332</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>363.83287642946</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.4611020691863</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.348781916454</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899054</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060493</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295504</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066296</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
